--- a/intranet/src/main/resources/templates/excelFile/Booking Confirmation & Invoice Sample.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/Booking Confirmation & Invoice Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8F21A-F574-480F-8BA2-4E225999E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E697FE3-69C1-40D3-938F-646295928C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="1350" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="42" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1715,7 +1713,7 @@
   <dimension ref="B5:G40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1850,11 +1848,11 @@
       </c>
       <c r="E17" s="79">
         <f>'250124(IKEA)_M1'!M15</f>
-        <v>6357.6</v>
+        <v>0</v>
       </c>
       <c r="F17" s="56">
         <f>E17-D17</f>
-        <v>0</v>
+        <v>-6357.5999999999995</v>
       </c>
       <c r="G17" s="56"/>
     </row>
@@ -2149,8 +2147,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -2739,8 +2737,8 @@
   </sheetPr>
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2943,10 +2941,7 @@
         <f>(G15-E15)*Input!D6</f>
         <v>2649</v>
       </c>
-      <c r="M15" s="83">
-        <f>J26+'250124(IKEA)_M2'!J26</f>
-        <v>6357.6</v>
-      </c>
+      <c r="M15" s="83"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
@@ -3256,7 +3251,7 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
